--- a/Scoping.xlsx
+++ b/Scoping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-31700" yWindow="620" windowWidth="24200" windowHeight="18520" tabRatio="500"/>
+    <workbookView xWindow="2420" yWindow="3540" windowWidth="29820" windowHeight="15360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>Step</t>
   </si>
@@ -43,6 +43,93 @@
   </si>
   <si>
     <t>Array&lt;string, string&gt;</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>ColSpan</t>
+  </si>
+  <si>
+    <t>InputStyle</t>
+  </si>
+  <si>
+    <t>TextArea</t>
+  </si>
+  <si>
+    <t>NumberList</t>
+  </si>
+  <si>
+    <t>TypeList</t>
+  </si>
+  <si>
+    <t>Cell 1</t>
+  </si>
+  <si>
+    <t>Cell 2</t>
+  </si>
+  <si>
+    <t>Cell 3</t>
+  </si>
+  <si>
+    <t>Colspan</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>cs</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Light_blue</t>
+  </si>
+  <si>
+    <t>Dark_blue</t>
+  </si>
+  <si>
+    <t>Purple</t>
+  </si>
+  <si>
+    <t>Heading</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Subheading</t>
+  </si>
+  <si>
+    <t>1_1_H</t>
+  </si>
+  <si>
+    <t>1_1_SH</t>
+  </si>
+  <si>
+    <t>1_1_I</t>
   </si>
 </sst>
 </file>
@@ -91,8 +178,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -105,15 +202,25 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -443,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:G21"/>
+  <dimension ref="C5:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -454,12 +561,12 @@
     <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:7">
+    <row r="5" spans="3:19">
       <c r="D5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="4:7">
+    <row r="7" spans="3:19">
       <c r="D7" t="s">
         <v>1</v>
       </c>
@@ -467,7 +574,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="3:19">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
       <c r="D12" t="s">
         <v>0</v>
       </c>
@@ -477,11 +587,48 @@
       <c r="F12" t="s">
         <v>2</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="4:7">
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="3:19">
+      <c r="C13" t="str">
+        <f>D13&amp;"_"&amp;E13</f>
+        <v>1_1</v>
+      </c>
       <c r="D13">
         <v>1</v>
       </c>
@@ -491,11 +638,48 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="4:7">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="3:19">
+      <c r="C14" t="str">
+        <f t="shared" ref="C14:C21" si="0">D14&amp;"_"&amp;E14</f>
+        <v>1_2</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -505,11 +689,27 @@
       <c r="F14" t="s">
         <v>6</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>500</v>
       </c>
-    </row>
-    <row r="15" spans="4:7">
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="3:19">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>2_1</v>
+      </c>
       <c r="D15">
         <v>2</v>
       </c>
@@ -519,11 +719,48 @@
       <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="4:7">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="3:19">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>2_2</v>
+      </c>
       <c r="D16">
         <v>2</v>
       </c>
@@ -533,11 +770,27 @@
       <c r="F16" t="s">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="4:7">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:19">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>3_1</v>
+      </c>
       <c r="D17">
         <v>3</v>
       </c>
@@ -547,11 +800,45 @@
       <c r="F17" t="s">
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="4:7">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>4_1</v>
+      </c>
       <c r="D18">
         <v>4</v>
       </c>
@@ -561,11 +848,45 @@
       <c r="F18" t="s">
         <v>7</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="4:7">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>5_1</v>
+      </c>
       <c r="D19">
         <v>5</v>
       </c>
@@ -575,11 +896,45 @@
       <c r="F19" t="s">
         <v>5</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="4:7">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>6_1</v>
+      </c>
       <c r="D20">
         <v>6</v>
       </c>
@@ -589,11 +944,45 @@
       <c r="F20" t="s">
         <v>5</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="4:7">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>7_1</v>
+      </c>
       <c r="D21">
         <v>7</v>
       </c>
@@ -603,8 +992,49 @@
       <c r="F21" t="s">
         <v>5</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>10</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O21" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19">
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
